--- a/result/kopkpopok- FR0014009DK8result.xlsx
+++ b/result/kopkpopok- FR0014009DK8result.xlsx
@@ -660,7 +660,7 @@
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>degressif</t>
+          <t>normal</t>
         </is>
       </c>
     </row>
@@ -677,7 +677,7 @@
       </c>
       <c r="C14" t="inlineStr">
         <is>
-          <t>100</t>
+          <t>0</t>
         </is>
       </c>
     </row>
@@ -711,7 +711,7 @@
       </c>
       <c r="C16" t="inlineStr">
         <is>
-          <t>80</t>
+          <t>100</t>
         </is>
       </c>
     </row>

--- a/result/kopkpopok- FR0014009DK8result.xlsx
+++ b/result/kopkpopok- FR0014009DK8result.xlsx
@@ -490,7 +490,7 @@
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>anglais</t>
+          <t>français</t>
         </is>
       </c>
     </row>
@@ -609,7 +609,7 @@
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>EURO STOXX 50 Price EUR</t>
+          <t>Bouygues SA</t>
         </is>
       </c>
     </row>
@@ -626,7 +626,7 @@
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>mono indice</t>
+          <t>mono action</t>
         </is>
       </c>
     </row>
@@ -643,7 +643,7 @@
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>100</t>
+          <t>95</t>
         </is>
       </c>
     </row>
@@ -660,7 +660,7 @@
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>normal</t>
+          <t>degressif</t>
         </is>
       </c>
     </row>
@@ -677,7 +677,7 @@
       </c>
       <c r="C14" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>1</t>
         </is>
       </c>
     </row>
@@ -694,7 +694,7 @@
       </c>
       <c r="C15" t="inlineStr">
         <is>
-          <t>100</t>
+          <t>85</t>
         </is>
       </c>
     </row>
@@ -711,7 +711,7 @@
       </c>
       <c r="C16" t="inlineStr">
         <is>
-          <t>100</t>
+          <t>84</t>
         </is>
       </c>
     </row>
@@ -728,7 +728,7 @@
       </c>
       <c r="C17" t="inlineStr">
         <is>
-          <t>100</t>
+          <t>95</t>
         </is>
       </c>
     </row>
@@ -745,7 +745,7 @@
       </c>
       <c r="C18" t="inlineStr">
         <is>
-          <t>oui</t>
+          <t>non</t>
         </is>
       </c>
     </row>
@@ -779,7 +779,7 @@
       </c>
       <c r="C20" t="inlineStr">
         <is>
-          <t>non</t>
+          <t>oui</t>
         </is>
       </c>
     </row>
@@ -796,7 +796,7 @@
       </c>
       <c r="C21" t="inlineStr">
         <is>
-          <t>50</t>
+          <t>75</t>
         </is>
       </c>
     </row>
@@ -881,7 +881,7 @@
       </c>
       <c r="C26" t="inlineStr">
         <is>
-          <t>strike moyen</t>
+          <t>strike normal</t>
         </is>
       </c>
     </row>
@@ -1000,7 +1000,7 @@
       </c>
       <c r="C33" t="inlineStr">
         <is>
-          <t>70</t>
+          <t>65</t>
         </is>
       </c>
     </row>

--- a/result/kopkpopok- FR0014009DK8result.xlsx
+++ b/result/kopkpopok- FR0014009DK8result.xlsx
@@ -541,7 +541,7 @@
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>morgan</t>
+          <t>BNP</t>
         </is>
       </c>
     </row>
@@ -609,7 +609,7 @@
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>Bouygues SA</t>
+          <t>EURO STOXX 50 Price EUR</t>
         </is>
       </c>
     </row>
@@ -626,7 +626,7 @@
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>mono action</t>
+          <t>mono indice</t>
         </is>
       </c>
     </row>
@@ -660,7 +660,7 @@
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>degressif</t>
+          <t>normal</t>
         </is>
       </c>
     </row>
@@ -677,7 +677,7 @@
       </c>
       <c r="C14" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>0</t>
         </is>
       </c>
     </row>
@@ -694,7 +694,7 @@
       </c>
       <c r="C15" t="inlineStr">
         <is>
-          <t>85</t>
+          <t>95</t>
         </is>
       </c>
     </row>
@@ -711,7 +711,7 @@
       </c>
       <c r="C16" t="inlineStr">
         <is>
-          <t>84</t>
+          <t>95</t>
         </is>
       </c>
     </row>
@@ -779,7 +779,7 @@
       </c>
       <c r="C20" t="inlineStr">
         <is>
-          <t>oui</t>
+          <t>non</t>
         </is>
       </c>
     </row>
@@ -796,7 +796,7 @@
       </c>
       <c r="C21" t="inlineStr">
         <is>
-          <t>75</t>
+          <t>70</t>
         </is>
       </c>
     </row>
@@ -1000,7 +1000,7 @@
       </c>
       <c r="C33" t="inlineStr">
         <is>
-          <t>65</t>
+          <t>70</t>
         </is>
       </c>
     </row>

--- a/result/kopkpopok- FR0014009DK8result.xlsx
+++ b/result/kopkpopok- FR0014009DK8result.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <bookViews>
-    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" xWindow="-28920" yWindow="-120" windowWidth="29040" windowHeight="15840" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
+    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" xWindow="28692" yWindow="-72" windowWidth="29016" windowHeight="15816" tabRatio="600" firstSheet="0" activeTab="1" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Feuil1" sheetId="1" state="visible" r:id="rId1"/>
@@ -11,7 +11,7 @@
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="DATE" sheetId="3" state="visible" r:id="rId3"/>
   </sheets>
   <definedNames/>
-  <calcPr calcId="191029" fullCalcOnLoad="1" iterate="1" iterateCount="10000"/>
+  <calcPr calcId="181029" fullCalcOnLoad="1" iterate="1" iterateCount="10000"/>
 </workbook>
 </file>
 
@@ -437,11 +437,11 @@
   </sheetPr>
   <dimension ref="A1:C34"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="I27" sqref="I27"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4"/>
   <sheetData>
     <row r="1">
       <c r="A1" s="1" t="inlineStr">
@@ -524,7 +524,7 @@
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>1.0</t>
+          <t>1</t>
         </is>
       </c>
     </row>
@@ -541,7 +541,7 @@
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>BNP</t>
+          <t>morgan</t>
         </is>
       </c>
     </row>
@@ -643,7 +643,7 @@
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>95</t>
+          <t>100</t>
         </is>
       </c>
     </row>
@@ -694,7 +694,7 @@
       </c>
       <c r="C15" t="inlineStr">
         <is>
-          <t>95</t>
+          <t>100</t>
         </is>
       </c>
     </row>
@@ -711,7 +711,7 @@
       </c>
       <c r="C16" t="inlineStr">
         <is>
-          <t>95</t>
+          <t>100</t>
         </is>
       </c>
     </row>
@@ -728,7 +728,7 @@
       </c>
       <c r="C17" t="inlineStr">
         <is>
-          <t>95</t>
+          <t>100</t>
         </is>
       </c>
     </row>
@@ -1000,7 +1000,7 @@
       </c>
       <c r="C33" t="inlineStr">
         <is>
-          <t>70</t>
+          <t>65</t>
         </is>
       </c>
     </row>
@@ -1032,14 +1032,37 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:A1"/>
+  <dimension ref="A1:D1"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D32" sqref="D32"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D2" sqref="D2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
-  <sheetData/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" t="inlineStr">
+        <is>
+          <t>Nom</t>
+        </is>
+      </c>
+      <c r="B1" t="inlineStr">
+        <is>
+          <t>Balise</t>
+        </is>
+      </c>
+      <c r="C1" t="inlineStr">
+        <is>
+          <t>Resultat</t>
+        </is>
+      </c>
+      <c r="D1" t="inlineStr">
+        <is>
+          <t>Flux</t>
+        </is>
+      </c>
+    </row>
+  </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
@@ -1050,18 +1073,32 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A2:A4"/>
+  <dimension ref="A1:A4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="D28" sqref="D28"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4"/>
   <sheetData>
+    <row r="1">
+      <c r="A1" t="inlineStr">
+        <is>
+          <t>Dates de constatations</t>
+        </is>
+      </c>
+    </row>
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
           <t>31/07/2023, 30/10/2023, 29/01/2024, 29/04/2024, 29/07/2024, 29/10/2024, 29/01/2025, 29/04/2025, 29/07/2025, 29/10/2025, 29/01/2026, 29/04/2026, 29/07/2026, 29/10/2026, 29/01/2027, 29/04/2027, 29/07/2027, 29/10/2027, 31/01/2028, 02/05/2028, 31/07/2028, 30/10/2028, 29/01/2029, 30/04/2029, 30/07/2029, 29/10/2029, 29/01/2030, 29/04/2030, 29/07/2030, 29/10/2030, 29/01/2031, 29/04/2031, 29/07/2031, 29/10/2031, 29/01/2032, 29/04/2032, 29/07/2032, 29/07/2032</t>
+        </is>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="inlineStr">
+        <is>
+          <t>Dates de remboursement</t>
         </is>
       </c>
     </row>

--- a/result/kopkpopok- FR0014009DK8result.xlsx
+++ b/result/kopkpopok- FR0014009DK8result.xlsx
@@ -541,7 +541,7 @@
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>morgan</t>
+          <t>BNP</t>
         </is>
       </c>
     </row>
@@ -575,7 +575,7 @@
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>trimestre</t>
+          <t>jours</t>
         </is>
       </c>
     </row>
@@ -609,7 +609,7 @@
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>EURO STOXX 50 Price EUR</t>
+          <t>Bouygues SA</t>
         </is>
       </c>
     </row>
@@ -626,7 +626,7 @@
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>mono indice</t>
+          <t>mono action</t>
         </is>
       </c>
     </row>
@@ -796,7 +796,7 @@
       </c>
       <c r="C21" t="inlineStr">
         <is>
-          <t>70</t>
+          <t>50</t>
         </is>
       </c>
     </row>
@@ -1091,7 +1091,7 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>31/07/2023, 30/10/2023, 29/01/2024, 29/04/2024, 29/07/2024, 29/10/2024, 29/01/2025, 29/04/2025, 29/07/2025, 29/10/2025, 29/01/2026, 29/04/2026, 29/07/2026, 29/10/2026, 29/01/2027, 29/04/2027, 29/07/2027, 29/10/2027, 31/01/2028, 02/05/2028, 31/07/2028, 30/10/2028, 29/01/2029, 30/04/2029, 30/07/2029, 29/10/2029, 29/01/2030, 29/04/2030, 29/07/2030, 29/10/2030, 29/01/2031, 29/04/2031, 29/07/2031, 29/10/2031, 29/01/2032, 29/04/2032, 29/07/2032, 29/07/2032</t>
+          <t>Chaque jour ouvré entre le 29 juillet 2023 (inclus) et le 29 juillet 2032.</t>
         </is>
       </c>
     </row>
@@ -1105,7 +1105,7 @@
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>07/08/2023, 06/11/2023, 05/02/2024, 07/05/2024, 05/08/2024, 05/11/2024, 05/02/2025, 07/05/2025, 05/08/2025, 05/11/2025, 05/02/2026, 07/05/2026, 05/08/2026, 05/11/2026, 05/02/2027, 06/05/2027, 05/08/2027, 05/11/2027, 07/02/2028, 09/05/2028, 07/08/2028, 06/11/2028, 05/02/2029, 08/05/2029, 06/08/2029, 05/11/2029, 05/02/2030, 07/05/2030, 05/08/2030, 05/11/2030, 05/02/2031, 07/05/2031, 05/08/2031, 05/11/2031, 05/02/2032, 06/05/2032</t>
+          <t>Le 5e jour ouvré suivant la date de constatation quotidienne.</t>
         </is>
       </c>
     </row>

--- a/result/kopkpopok- FR0014009DK8result.xlsx
+++ b/result/kopkpopok- FR0014009DK8result.xlsx
@@ -490,7 +490,7 @@
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>français</t>
+          <t>anglais</t>
         </is>
       </c>
     </row>
@@ -541,7 +541,7 @@
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>BNP</t>
+          <t>crédit suisse</t>
         </is>
       </c>
     </row>
@@ -575,7 +575,7 @@
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>jours</t>
+          <t>trimestre</t>
         </is>
       </c>
     </row>
@@ -609,7 +609,7 @@
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>Bouygues SA</t>
+          <t>BNP Paribas et Stellantis NV et Veolia Environnement SA</t>
         </is>
       </c>
     </row>
@@ -728,7 +728,7 @@
       </c>
       <c r="C17" t="inlineStr">
         <is>
-          <t>100</t>
+          <t>0.55%%</t>
         </is>
       </c>
     </row>
@@ -1000,7 +1000,7 @@
       </c>
       <c r="C33" t="inlineStr">
         <is>
-          <t>65</t>
+          <t>70</t>
         </is>
       </c>
     </row>
@@ -1091,7 +1091,7 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>Chaque jour ouvré entre le 29 juillet 2023 (inclus) et le 29 juillet 2032.</t>
+          <t>31/07/2023, 30/10/2023, 29/01/2024, 29/04/2024, 29/07/2024, 29/10/2024, 29/01/2025, 29/04/2025, 29/07/2025, 29/10/2025, 29/01/2026, 29/04/2026, 29/07/2026, 29/10/2026, 29/01/2027, 29/04/2027, 29/07/2027, 29/10/2027, 31/01/2028, 02/05/2028, 31/07/2028, 30/10/2028, 29/01/2029, 30/04/2029, 30/07/2029, 29/10/2029, 29/01/2030, 29/04/2030, 29/07/2030, 29/10/2030, 29/01/2031, 29/04/2031, 29/07/2031, 29/10/2031, 29/01/2032, 29/04/2032, 29/07/2032, 29/07/2032</t>
         </is>
       </c>
     </row>
@@ -1105,7 +1105,7 @@
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>Le 5e jour ouvré suivant la date de constatation quotidienne.</t>
+          <t>07/08/2023, 06/11/2023, 05/02/2024, 07/05/2024, 05/08/2024, 05/11/2024, 05/02/2025, 07/05/2025, 05/08/2025, 05/11/2025, 05/02/2026, 07/05/2026, 05/08/2026, 05/11/2026, 05/02/2027, 06/05/2027, 05/08/2027, 05/11/2027, 07/02/2028, 09/05/2028, 07/08/2028, 06/11/2028, 05/02/2029, 08/05/2029, 06/08/2029, 05/11/2029, 05/02/2030, 07/05/2030, 05/08/2030, 05/11/2030, 05/02/2031, 07/05/2031, 05/08/2031, 05/11/2031, 05/02/2032, 06/05/2032</t>
         </is>
       </c>
     </row>

--- a/result/kopkpopok- FR0014009DK8result.xlsx
+++ b/result/kopkpopok- FR0014009DK8result.xlsx
@@ -490,7 +490,7 @@
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>anglais</t>
+          <t>français</t>
         </is>
       </c>
     </row>
@@ -524,7 +524,7 @@
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>1.0</t>
         </is>
       </c>
     </row>
@@ -541,7 +541,7 @@
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>crédit suisse</t>
+          <t>BNP</t>
         </is>
       </c>
     </row>
@@ -592,7 +592,7 @@
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>1.00</t>
+          <t>2.1</t>
         </is>
       </c>
     </row>
@@ -609,7 +609,7 @@
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>BNP Paribas et Stellantis NV et Veolia Environnement SA</t>
+          <t>BNP Paribas</t>
         </is>
       </c>
     </row>
@@ -677,7 +677,7 @@
       </c>
       <c r="C14" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>0.55</t>
         </is>
       </c>
     </row>
@@ -711,7 +711,7 @@
       </c>
       <c r="C16" t="inlineStr">
         <is>
-          <t>100</t>
+          <t>80</t>
         </is>
       </c>
     </row>
@@ -728,7 +728,7 @@
       </c>
       <c r="C17" t="inlineStr">
         <is>
-          <t>0.55%%</t>
+          <t>80</t>
         </is>
       </c>
     </row>
@@ -779,7 +779,7 @@
       </c>
       <c r="C20" t="inlineStr">
         <is>
-          <t>non</t>
+          <t>oui</t>
         </is>
       </c>
     </row>
@@ -830,7 +830,7 @@
       </c>
       <c r="C23" t="inlineStr">
         <is>
-          <t>2023-07-29</t>
+          <t>07/29/2023</t>
         </is>
       </c>
     </row>
@@ -847,7 +847,7 @@
       </c>
       <c r="C24" t="inlineStr">
         <is>
-          <t>2030-07-29</t>
+          <t>29/07/2032</t>
         </is>
       </c>
     </row>
@@ -864,7 +864,7 @@
       </c>
       <c r="C25" t="inlineStr">
         <is>
-          <t>2032-07-29</t>
+          <t>29/07/2032</t>
         </is>
       </c>
     </row>
@@ -898,7 +898,7 @@
       </c>
       <c r="C27" t="inlineStr">
         <is>
-          <t>2023-08-02</t>
+          <t>08/02/2023</t>
         </is>
       </c>
     </row>
@@ -915,7 +915,7 @@
       </c>
       <c r="C28" t="inlineStr">
         <is>
-          <t>2030-08-02</t>
+          <t>02/08/2030</t>
         </is>
       </c>
     </row>
@@ -932,7 +932,7 @@
       </c>
       <c r="C29" t="inlineStr">
         <is>
-          <t>2032-08-02</t>
+          <t>02/08/2032</t>
         </is>
       </c>
     </row>

--- a/result/kopkpopok- FR0014009DK8result.xlsx
+++ b/result/kopkpopok- FR0014009DK8result.xlsx
@@ -490,7 +490,7 @@
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>français</t>
+          <t>suisse</t>
         </is>
       </c>
     </row>
@@ -524,7 +524,7 @@
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>1.0</t>
+          <t>1</t>
         </is>
       </c>
     </row>
@@ -541,7 +541,7 @@
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>BNP</t>
+          <t>Crédit Suisse</t>
         </is>
       </c>
     </row>
@@ -609,7 +609,7 @@
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>BNP Paribas</t>
+          <t>EURO STOXX 50 Price EUR</t>
         </is>
       </c>
     </row>
@@ -626,7 +626,7 @@
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>mono action</t>
+          <t>equipondéré action</t>
         </is>
       </c>
     </row>
@@ -643,7 +643,7 @@
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>100</t>
+          <t>95</t>
         </is>
       </c>
     </row>
@@ -677,7 +677,7 @@
       </c>
       <c r="C14" t="inlineStr">
         <is>
-          <t>0.55</t>
+          <t>1</t>
         </is>
       </c>
     </row>
@@ -694,7 +694,7 @@
       </c>
       <c r="C15" t="inlineStr">
         <is>
-          <t>100</t>
+          <t>65</t>
         </is>
       </c>
     </row>
@@ -711,7 +711,7 @@
       </c>
       <c r="C16" t="inlineStr">
         <is>
-          <t>80</t>
+          <t>64</t>
         </is>
       </c>
     </row>
@@ -728,7 +728,7 @@
       </c>
       <c r="C17" t="inlineStr">
         <is>
-          <t>80</t>
+          <t>95</t>
         </is>
       </c>
     </row>
@@ -779,7 +779,7 @@
       </c>
       <c r="C20" t="inlineStr">
         <is>
-          <t>oui</t>
+          <t>non</t>
         </is>
       </c>
     </row>
@@ -830,7 +830,7 @@
       </c>
       <c r="C23" t="inlineStr">
         <is>
-          <t>07/29/2023</t>
+          <t>29/07/2023</t>
         </is>
       </c>
     </row>
@@ -1000,7 +1000,7 @@
       </c>
       <c r="C33" t="inlineStr">
         <is>
-          <t>70</t>
+          <t>55</t>
         </is>
       </c>
     </row>
